--- a/问题记录.xlsx
+++ b/问题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>imgui环境配置问题：</t>
   </si>
@@ -38,6 +38,21 @@
   </si>
   <si>
     <t>然后再配置lib库，这个imgui.lib记得配置，之前就是因为这个没配置，所以环境一直报错</t>
+  </si>
+  <si>
+    <t>关于在使用imgui的时候，ui</t>
+  </si>
+  <si>
+    <t>是渲染顺序出错了，图片中标蓝的这一段代码，应该放在加载imgui这一段代码后面，</t>
+  </si>
+  <si>
+    <t>一直显示不出来的问题</t>
+  </si>
+  <si>
+    <t>具体原因我个人猜测是因为设置了深度测试后，ui的深度值比较小，所以会被背景给覆盖掉。</t>
+  </si>
+  <si>
+    <t>所以把深度测试在ui加载好了后在开启，就不会把ui挡住了。</t>
   </si>
 </sst>
 </file>
@@ -792,6 +807,48 @@
         <a:xfrm>
           <a:off x="1805940" y="2971800"/>
           <a:ext cx="5637530" cy="2868930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5654675</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>163195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1805940" y="5852160"/>
+          <a:ext cx="5654675" cy="5100955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1057,10 +1114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1082,6 +1139,27 @@
     <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/问题记录.xlsx
+++ b/问题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9767"/>
+    <workbookView windowHeight="18375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>imgui环境配置问题：</t>
   </si>
@@ -54,6 +54,21 @@
   <si>
     <t>所以把深度测试在ui加载好了后在开启，就不会把ui挡住了。</t>
   </si>
+  <si>
+    <t>关于在给sampler2D类型赋值的</t>
+  </si>
+  <si>
+    <t>因为我们在OpenGL中设置纹理的时候，使用的是纹理单元GL_TEXTURE,我们先激活指定编号的纹理单元，再进行使用。</t>
+  </si>
+  <si>
+    <t>时候，为什么使用glUniform1i</t>
+  </si>
+  <si>
+    <t>在GLSL中，我们的sampler2D被使用的时候，其实也就是根据纹理单元的编号，根据编号去寻找纹理值的，所以才会使用glUniform1i，因为纹理编号是int</t>
+  </si>
+  <si>
+    <t>而不是用glUniform</t>
+  </si>
 </sst>
 </file>
 
@@ -218,12 +233,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -544,7 +565,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,16 +589,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -586,90 +607,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,7 +788,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1767840" y="15240"/>
-          <a:ext cx="5687060" cy="2834005"/>
+          <a:ext cx="5887720" cy="2662555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -787,8 +811,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5637530</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -805,8 +829,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1805940" y="2971800"/>
-          <a:ext cx="5637530" cy="2868930"/>
+          <a:off x="2006600" y="2788920"/>
+          <a:ext cx="5637530" cy="2697480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -847,8 +871,134 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1805940" y="5852160"/>
-          <a:ext cx="5654675" cy="5100955"/>
+          <a:off x="2006600" y="5486400"/>
+          <a:ext cx="5654675" cy="4792345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5162550</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2006600" y="10287000"/>
+          <a:ext cx="5162550" cy="2295525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1997075</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5248275</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1997075" y="12592050"/>
+          <a:ext cx="5257800" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3095625</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2006600" y="13658850"/>
+          <a:ext cx="3095625" cy="1990725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1114,20 +1264,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="82.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="82.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1142,7 +1292,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
@@ -1150,7 +1300,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
@@ -1160,6 +1310,27 @@
     <row r="35" spans="3:3">
       <c r="C35" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1179,7 +1350,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1196,7 +1367,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/问题记录.xlsx
+++ b/问题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18375"/>
+    <workbookView windowWidth="22188" windowHeight="9767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>imgui环境配置问题：</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>而不是用glUniform</t>
+  </si>
+  <si>
+    <t>使用stb_image.h的时候报错</t>
+  </si>
+  <si>
+    <t>需要在main文件中添加#define STB_IMAGE_IMPLEMENTATION这句代码，且只能在main中添加,不然就会报图中的错。</t>
+  </si>
+  <si>
+    <t>具体为什么只能在main中添加宏定义，暂时还不知道原因。</t>
   </si>
 </sst>
 </file>
@@ -788,7 +797,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1767840" y="15240"/>
-          <a:ext cx="5887720" cy="2662555"/>
+          <a:ext cx="5687060" cy="2834005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -829,8 +838,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006600" y="2788920"/>
-          <a:ext cx="5637530" cy="2697480"/>
+          <a:off x="1805940" y="2971800"/>
+          <a:ext cx="5637530" cy="2880360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,8 +860,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5654675</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>163195</xdr:rowOff>
     </xdr:to>
@@ -871,8 +880,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006600" y="5486400"/>
-          <a:ext cx="5654675" cy="4792345"/>
+          <a:off x="1805940" y="5852160"/>
+          <a:ext cx="5654040" cy="5100955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -913,8 +922,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006600" y="10287000"/>
-          <a:ext cx="5162550" cy="2295525"/>
+          <a:off x="1805940" y="10972800"/>
+          <a:ext cx="5162550" cy="2444115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -955,8 +964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1997075" y="12592050"/>
-          <a:ext cx="5257800" cy="1066800"/>
+          <a:off x="1805940" y="13426440"/>
+          <a:ext cx="5248275" cy="1135380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,8 +1006,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006600" y="13658850"/>
-          <a:ext cx="3095625" cy="1990725"/>
+          <a:off x="1805940" y="14561820"/>
+          <a:ext cx="3095625" cy="2127885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5639435</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1805940" y="16642080"/>
+          <a:ext cx="5639435" cy="1852295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1264,16 +1315,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="82.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="82.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1331,6 +1382,19 @@
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1414,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1367,7 +1431,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/问题记录.xlsx
+++ b/问题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>imgui环境配置问题：</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>具体为什么只能在main中添加宏定义，暂时还不知道原因。</t>
+  </si>
+  <si>
+    <t>在配置环境的时候，最好把依</t>
+  </si>
+  <si>
+    <t>最好给文件专门建个文件夹，把依赖的库的代码都放在里面，然后用的时候就能直接用了，不用再去索引。</t>
+  </si>
+  <si>
+    <t>赖库都放在代码里面</t>
+  </si>
+  <si>
+    <t>左边这个就是因为没有放到文件里，是额外链接的，然后再手动点了“包括在项目内”。这样还是会麻烦点的。</t>
   </si>
 </sst>
 </file>
@@ -1062,6 +1074,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5000625</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1805940" y="18470880"/>
+          <a:ext cx="5000625" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1315,10 +1369,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1395,6 +1449,22 @@
     <row r="93" spans="3:3">
       <c r="C93" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/问题记录.xlsx
+++ b/问题记录.xlsx
@@ -1116,6 +1116,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5636895</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>306705</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7442835" y="401955"/>
+          <a:ext cx="4644390" cy="2358390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1371,8 +1413,8 @@
   <sheetPr/>
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
